--- a/biology/Zoologie/Alesa_amesis/Alesa_amesis.xlsx
+++ b/biology/Zoologie/Alesa_amesis/Alesa_amesis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alesa amesis est un insecte lépidoptère appartenant à la famille  des Riodinidae et au genre Alesa.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alesa amesis a initialement été décrit par Pieter Cramer en 1777 sous le nom de Papilio amesis[1].
-Noms vernaculaires
-En anglais, on l'appelle communément Amesis Metalmark.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alesa amesis a initialement été décrit par Pieter Cramer en 1777 sous le nom de Papilio amesis.
 </t>
         </is>
       </c>
@@ -541,12 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Au stade adulte, Alesa amesis est un papillon de taille moyenne avec une envergure d'environ 38 mm[2]. La face dorsale des ailes du mâle est noire, tandis que la face ventrale est beige à cuivré. Les ailes antérieures présentent des veines et des marques submarginales discrètes. Les ailes postérieures sont ornées de quelques taches sombres dans la partie basale et d'une ligne submarginale d'ocelles noirs cerclés de clair.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En anglais, on l'appelle communément Amesis Metalmark.
 </t>
         </is>
       </c>
@@ -572,12 +590,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les chenilles d'Alesa amesis  sont soignées par la fourmi arboricole Camponotus femoratus dans son jardin de fourmis[1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au stade adulte, Alesa amesis est un papillon de taille moyenne avec une envergure d'environ 38 mm. La face dorsale des ailes du mâle est noire, tandis que la face ventrale est beige à cuivré. Les ailes antérieures présentent des veines et des marques submarginales discrètes. Les ailes postérieures sont ornées de quelques taches sombres dans la partie basale et d'une ligne submarginale d'ocelles noirs cerclés de clair.
 </t>
         </is>
       </c>
@@ -603,16 +623,121 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chenilles d'Alesa amesis  sont soignées par la fourmi arboricole Camponotus femoratus dans son jardin de fourmis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alesa_amesis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alesa_amesis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alesa amesis est présent en Guyane, en Guyana, au Surinam, en Équateur, au Venezuela, en Colombie, au Brésil et au Pérou[1].
-Biotope
-Il réside dans la forêt amazonienne.
-Protection
-Pas de statut de protection particulier.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alesa amesis est présent en Guyane, en Guyana, au Surinam, en Équateur, au Venezuela, en Colombie, au Brésil et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Alesa_amesis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alesa_amesis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt amazonienne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Alesa_amesis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alesa_amesis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
